--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf12.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf12.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Os Estados têm o direito de soberania para aproveitar os seus recursos naturais de conformidade com o seu dever de proteger o meio marinho.</t>
+          <t>Os Estados têm o direito de soberania para aproveitar os seus recursos naturais de acordo com a sua política ambiental e o dever de proteger o meio marinho.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O direito de soberania dos Estados para aproveitar seus recursos naturais é absoluto e sobrepõe-se a quaisquer obrigações ambientais.</t>
+          <t>O direito de soberania dos Estados para aproveitar seus recursos naturais é absoluto e isenta-os da obrigação de proteger o meio marinho.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 193 estabelece que o aproveitamento dos recursos deve estar de acordo com o dever de proteger e preservar o meio marinho.</t>
+          <t>Conforme o **art. 193**, os Estados têm soberania para aproveitar recursos, mas de conformidade com o dever de proteger e preservar o meio marinho.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>As medidas tomadas de acordo com a Parte XII devem referir-se a todas as fontes de poluição do meio marinho.</t>
+          <t>Os Estados devem tomar todas as medidas necessárias para prevenir, reduzir e controlar a poluição, utilizando os meios mais viáveis de que disponham.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>As medidas de proteção do meio marinho devem focar exclusivamente na poluição causada por embarcações, ignorando fontes terrestres ou atmosféricas.</t>
+          <t>Os Estados devem prevenir a poluição a qualquer custo, independentemente dos meios viáveis de que disponham ou de suas possibilidades econômicas.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 194, parágrafo 3º, exige que as medidas abranjam todas as fontes de poluição (terrestres, atmosféricas, alijamento, etc.).</t>
+          <t>Segundo o **art. 194, parágrafo 1º**, os Estados devem utilizar os meios mais viáveis de que disponham e de conformidade com as suas possibilidades.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -551,27 +551,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Os Estados devem tomar medidas para garantir que a poluição sob sua jurisdição não cause prejuízos a outros Estados e ao seu meio ambiente.</t>
+          <t>As medidas tomadas pelos Estados devem garantir que a poluição sob sua jurisdição não cause prejuízos a outros Estados.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Um Estado não é responsável se a poluição gerada sob sua jurisdição se espalhar e causar danos ao meio ambiente de Estados vizinhos.</t>
+          <t>Os Estados não são responsáveis se a poluição causada por atividades sob sua jurisdição se estender além das áreas onde exercem soberania.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 194, parágrafo 2º, obriga os Estados a evitar que a poluição se estenda além das áreas onde exercem soberania.</t>
+          <t>De acordo com o **art. 194, parágrafo 2º**, os Estados devem garantir que a poluição sob seu controle não se estenda além das áreas onde exerçam direitos de soberania.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -585,27 +585,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág. 57</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ao prevenir a poluição, os Estados devem agir de modo a não transferir danos ou riscos de uma zona para outra.</t>
+          <t>Ao tomar medidas contra a poluição, os Estados não devem transferir danos ou riscos de uma zona para outra.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>É uma prática aceitável transferir resíduos poluentes de uma zona marinha para outra, desde que a zona de origem fique limpa.</t>
+          <t>É permitido aos Estados transferir a poluição de uma zona para outra, desde que a nova zona seja menos ecologicamente sensível.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 195 proíbe a transferência de danos ou riscos e a transformação de um tipo de poluição em outro.</t>
+          <t>O texto do **art. 195** estabelece o dever de agir de modo a não transferir direta ou indiretamente danos ou riscos de uma zona para outra.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -619,27 +619,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág. 57</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Os Estados devem tomar medidas para prevenir a introdução de espécies estranhas ou novas que possam provocar mudanças prejudiciais no meio marinho.</t>
+          <t>Os Estados devem notificar imediatamente outros Estados e organizações competentes ao saberem de perigo iminente de danos por poluição ao meio marinho.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A introdução de espécies exóticas no meio marinho é livre e incentivada, independentemente dos riscos de desequilíbrio ecológico.</t>
+          <t>A notificação de danos iminentes por poluição é facultativa e deve ser feita apenas se o Estado julgar politicamente conveniente.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 196 exige medidas para prevenir a introdução de espécies estranhas que causem danos.</t>
+          <t>Conforme o **art. 198**, quando um Estado tiver conhecimento de perigo iminente, deve notificá-lo imediatamente a outros Estados e organizações competentes.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -653,27 +653,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 57</t>
+          <t>Pág. 57</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Os Estados devem cooperar no plano mundial e regional na formulação de regras e normas para a proteção do meio marinho.</t>
+          <t>Os Estados devem tomar medidas para prevenir a introdução de espécies estranhas ou novas que possam causar mudanças prejudiciais ao meio marinho.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A proteção do meio marinho é um assunto estritamente doméstico, sendo vedada a interferência ou cooperação com organizações internacionais.</t>
+          <t>A Convenção limita-se à poluição química, não regulando a introdução de espécies estranhas ou novas no meio marinho.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 197 estabelece o dever de cooperação mundial e regional para elaboração de normas.</t>
+          <t>Segundo o **art. 196, parágrafo 1º**, os Estados devem tomar medidas para prevenir a introdução de espécies estranhas ou novas que possam provocar mudanças prejudiciais.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -687,27 +687,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág. 58</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Os Estados devem promover assistência técnica aos Estados em desenvolvimento, incluindo a formação de pessoal científico e fornecimento de equipamento.</t>
+          <t>Os Estados devem promover programas de assistência científica e técnica aos Estados em desenvolvimento para a proteção do meio marinho.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Os Estados em desenvolvimento devem arcar sozinhos com os custos de proteção ambiental, sem direito a qualquer assistência técnica internacional.</t>
+          <t>A assistência técnica aos Estados em desenvolvimento é vedada para evitar dependência tecnológica na proteção ambiental.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Artigo 202 lista a promoção de programas de assistência científica e técnica como uma obrigação.</t>
+          <t>O **art. 202, alínea 'a'**, determina que os Estados devem promover programas de assistência científica e técnica aos Estados em desenvolvimento.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -721,12 +721,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág. 58</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A distribuição de fundos para proteção ambiental deve ser igualitária, sendo proibido qualquer tratamento preferencial aos Estados em desenvolvimento.</t>
+          <t>Todos os Estados devem receber tratamento idêntico das organizações internacionais, sem preferência na distribuição de fundos ou assistência técnica.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Artigo 203 determina o tratamento preferencial aos Estados em desenvolvimento pelas organizações internacionais.</t>
+          <t>Conforme o **art. 203**, as organizações internacionais devem dar tratamento preferencial aos Estados em desenvolvimento na distribuição de fundos e assistência.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -755,27 +755,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 58</t>
+          <t>Pág. 58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Os Estados devem observar, medir, avaliar e analisar, mediante métodos científicos, os riscos ou efeitos de poluição do meio marinho.</t>
+          <t>Os Estados devem manter sob vigilância os efeitos de quaisquer atividades por eles autorizadas para determinar se são suscetíveis de poluir.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>O monitoramento científico da poluição marinha é opcional e só deve ser realizado se houver vantagens econômicas imediatas.</t>
+          <t>Uma vez autorizada uma atividade, o Estado não tem obrigação de manter vigilância sobre seus efeitos no meio marinho.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O Artigo 204 estabelece o dever de controle sistemático (monitoramento) dos riscos e efeitos da poluição.</t>
+          <t>De acordo com o **art. 204, parágrafo 2º**, os Estados devem manter sob vigilância os efeitos de quaisquer atividades por eles autorizadas.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -789,27 +789,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág. 59</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Os Estados devem adotar leis para prevenir a poluição de origem terrestre, tendo em conta regras e normas internacionalmente acordadas.</t>
+          <t>Os Estados devem adotar leis para controlar a poluição de origem terrestre, incluindo rios, estuários e dutos.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A Convenção não regula a poluição de origem terrestre (como rios e estuários), focando apenas na poluição gerada por navios.</t>
+          <t>A poluição proveniente de rios e estuários não é coberta pela Convenção, pois ocorre em águas interiores e não no mar.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 207 obriga a adoção de leis contra a poluição de origem terrestre.</t>
+          <t>O **art. 207, parágrafo 1º**, exige a adoção de leis para controlar a poluição proveniente de fontes terrestres, incluindo rios, estuários e dutos.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -823,27 +823,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág. 59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>As leis nacionais para prevenir a poluição proveniente de atividades nos fundos marinhos não devem ser menos eficazes que as normas internacionais.</t>
+          <t>As leis nacionais sobre poluição proveniente de atividades na Área não devem ser menos eficazes que as regras e normas internacionais.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Os Estados podem adotar leis mais brandas que as normas internacionais para a poluição dos fundos marinhos a fim de atrair investimentos.</t>
+          <t>Os Estados têm liberdade para adotar leis sobre a poluição na Área que sejam menos rigorosas que as normas internacionais, se desejarem.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 208, parágrafo 3º, exige que as leis nacionais não sejam menos eficazes que as regras internacionais.</t>
+          <t>Segundo o **art. 209, parágrafo 2º**, tais leis e regulamentos não devem ser menos eficazes que as normas, regulamentos e procedimentos internacionais.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -857,27 +857,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 59</t>
+          <t>Pág. 59</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Devem estabelecer-se regras internacionais para prevenir a poluição proveniente de atividades na Área (patrimônio comum da humanidade).</t>
+          <t>Os Estados costeiros devem adotar leis para controlar a poluição resultante de atividades nos fundos marinhos sob sua jurisdição.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A Área, por ser patrimônio comum, está isenta de regulamentações ambientais restritivas.</t>
+          <t>A poluição decorrente de atividades nos fundos marinhos sob jurisdição nacional é regulada exclusivamente pela Autoridade Internacional, sem leis estatais.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 209 prevê o estabelecimento de regras para atividades na Área conforme a Parte XI.</t>
+          <t>Conforme o **art. 208, parágrafo 1º**, os Estados costeiros devem adotar leis para controlar a poluição proveniente de atividades relativas aos fundos marinhos sob sua jurisdição.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -891,27 +891,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág. 60</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O alijamento no mar territorial e na ZEE não pode realizar-se sem o consentimento prévio expresso do Estado costeiro.</t>
+          <t>O alijamento na zona econômica exclusiva não pode realizar-se sem o consentimento prévio expresso do Estado costeiro.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>O alijamento (descarte) de resíduos na Zona Econômica Exclusiva é livre para todos os Estados, independentemente da vontade do Estado costeiro.</t>
+          <t>O alijamento na zona econômica exclusiva é livre para qualquer Estado, independentemente da autorização do Estado costeiro.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O Artigo 210, parágrafo 5º, exige o consentimento prévio do Estado costeiro para alijamento em suas zonas.</t>
+          <t>O texto do **art. 210, parágrafo 5º**, afirma que o alijamento na ZEE não pode realizar-se sem o consentimento prévio expresso do Estado costeiro.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -925,27 +925,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág. 60</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>As leis nacionais sobre alijamento devem assegurar que este não se realize sem autorização das autoridades competentes.</t>
+          <t>Os Estados costeiros podem adotar leis no mar territorial para controlar a poluição de embarcações estrangeiras, desde que não dificultem a passagem inocente.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>O alijamento de materiais no mar é permitido automaticamente, salvo se houver uma proibição explícita para o material específico.</t>
+          <t>Os Estados costeiros não podem legislar sobre poluição no mar territorial em relação a embarcações estrangeiras para não afetar a soberania de bandeira.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>O Artigo 210, parágrafo 3º, exige autorização das autoridades competentes para qualquer alijamento.</t>
+          <t>De acordo com o **art. 211, parágrafo 4º**, os Estados costeiros podem adotar leis no mar territorial, mas elas não devem dificultar a passagem inocente.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -959,27 +959,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág. 60</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Os Estados costeiros podem adotar leis para controlar a poluição no mar territorial, desde que não dificultem a passagem inocente de embarcações estrangeiras.</t>
+          <t>Para prevenir a poluição em áreas especiais da ZEE, os Estados costeiros podem adotar medidas obrigatórias após aprovação da organização internacional competente.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode proibir totalmente a passagem de qualquer navio estrangeiro no mar territorial sob o pretexto de prevenir poluição, mesmo sem base técnica.</t>
+          <t>Os Estados costeiros podem declarar unilateralmente qualquer parte da ZEE como área especial e impor regras próprias sem consultar organizações internacionais.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O Artigo 211, parágrafo 4º, permite regulação desde que respeite o direito de passagem inocente.</t>
+          <t>Segundo o **art. 211, parágrafo 6º, alínea 'a'**, medidas obrigatórias especiais em áreas da ZEE requerem decisão favorável da organização internacional competente após comunicação e provas.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -993,27 +993,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Os Estados costeiros podem adotar medidas obrigatórias especiais em áreas da ZEE com condições oceanográficas e ecológicas particulares, mediante aprovação internacional.</t>
+          <t>Os Estados devem adotar leis para controlar a poluição proveniente da atmosfera aplicáveis ao espaço aéreo sob sua soberania e a embarcações de sua bandeira.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>O Estado costeiro tem liberdade total para fechar qualquer parte da sua ZEE à navegação internacional por motivos ambientais, sem consultar organizações competentes.</t>
+          <t>A poluição atmosférica sobre o mar não é regulada pela Convenção, sendo responsabilidade exclusiva de acordos climáticos específicos.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O Artigo 211, parágrafo 6º, regula a criação de áreas especiais na ZEE mediante aprovação da organização competente.</t>
+          <t>Conforme o **art. 212, parágrafo 1º**, os Estados devem adotar leis para controlar a poluição proveniente da atmosfera aplicáveis ao seu espaço aéreo e embarcações.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1027,27 +1027,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Os Estados devem adotar leis para prevenir a poluição proveniente da atmosfera aplicáveis ao espaço aéreo sob sua soberania e a embarcações de sua bandeira.</t>
+          <t>Os Estados devem assegurar a execução de suas leis adotadas para controlar a poluição de origem terrestre.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A poluição atmosférica sobre o mar não é abordada pela Convenção, sendo responsabilidade exclusiva de acordos climáticos separados.</t>
+          <t>A execução das leis sobre poluição de origem terrestre é facultativa e depende da vontade política do Estado costeiro.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O Artigo 212 exige a adoção de leis contra a poluição proveniente da atmosfera ou através dela.</t>
+          <t>O **art. 213** estabelece que os Estados devem assegurar a execução das suas leis e regulamentos adotados de conformidade com o artigo 207 (origem terrestre).</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág. 61</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Os Estados devem assegurar a execução das suas leis adotadas para prevenir a poluição do meio marinho de origem terrestre.</t>
+          <t>Os Estados devem adotar leis e tomar medidas para pôr em prática regras internacionais sobre poluição proveniente de atividades nos fundos marinhos.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A execução de leis contra poluição terrestre é facultativa se a poluição não atingir águas internacionais.</t>
+          <t>As regras internacionais sobre poluição dos fundos marinhos são autoaplicáveis e não exigem que os Estados adotem medidas de execução internas.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O Artigo 213 obriga os Estados a assegurar a execução das leis sobre poluição de origem terrestre.</t>
+          <t>Segundo o **art. 214**, os Estados devem adotar leis e tomar medidas necessárias para pôr em prática as regras internacionais sobre poluição dos fundos marinhos.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1095,27 +1095,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 62</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A execução de leis sobre alijamento no mar territorial ou na ZEE compete ao Estado costeiro.</t>
+          <t>As leis sobre poluição por alijamento devem ser executadas pelo Estado costeiro quando o alijamento ocorrer em sua ZEE ou plataforma continental.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>O Estado costeiro não tem competência para fiscalizar alijamento na sua ZEE, cabendo essa função apenas ao Estado da bandeira do navio.</t>
+          <t>O Estado costeiro só tem competência para executar leis sobre alijamento dentro do seu mar territorial, nunca na ZEE.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>O Artigo 216, parágrafo 1º 'a', atribui a execução ao Estado costeiro nessas zonas.</t>
+          <t>De acordo com o **art. 216, parágrafo 1º, alínea 'a'**, as leis de alijamento devem ser executadas pelo Estado costeiro na sua zona econômica exclusiva ou plataforma continental.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1129,27 +1129,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 62</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Os Estados de bandeira devem assegurar que as suas embarcações sejam proibidas de navegar se não cumprirem os requisitos internacionais de projeto e equipamento.</t>
+          <t>Os Estados devem assegurar que as embarcações de sua bandeira sejam proibidas de navegar se não cumprirem os requisitos internacionais de projeto e equipamento.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>O Estado de bandeira deve permitir a navegação de seus navios mesmo que não cumpram normas ambientais, para não prejudicar o comércio.</t>
+          <t>O Estado de bandeira deve permitir a navegação de suas embarcações mesmo que não cumpram requisitos de equipamento, aplicando apenas multas posteriores.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O Artigo 217, parágrafo 2º, exige que o Estado proíba a navegação de navios fora dos padrões.</t>
+          <t>O texto do **art. 217, parágrafo 2º**, exige que os Estados proíbam embarcações de navegar enquanto não estiverem em condições de cumprir regras internacionais.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1163,27 +1163,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 62</t>
+          <t>Pág. 62</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O Estado de bandeira deve ordenar uma investigação imediata se uma embarcação cometer uma infração às regras internacionais, independentemente do local.</t>
+          <t>O Estado de bandeira deve ordenar uma investigação imediata se uma embarcação sua cometer infração às regras internacionais, independentemente do local.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>O Estado de bandeira só é obrigado a investigar infrações que ocorram dentro de suas próprias águas territoriais.</t>
+          <t>O Estado de bandeira só pode investigar infrações cometidas por suas embarcações se a infração ocorrer dentro de suas próprias águas territoriais.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O Artigo 217, parágrafo 4º, obriga a investigação imediata independentemente do local da infração.</t>
+          <t>Conforme o **art. 217, parágrafo 4º**, o Estado de bandeira deve ordenar investigação imediata independentemente do local em que a infração tenha sido cometida.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1197,27 +1197,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pág 63</t>
+          <t>Pág. 63</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O Estado do porto pode investigar descargas ilegais realizadas fora de suas águas se a embarcação estiver voluntariamente no seu porto.</t>
+          <t>Um Estado do porto pode investigar descargas ilegais realizadas fora de suas águas se a embarcação estiver voluntariamente em seu porto.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>O Estado do porto só pode investigar infrações que tenham ocorrido estritamente dentro dos limites do seu próprio porto.</t>
+          <t>O Estado do porto está proibido de investigar qualquer descarga ocorrida fora de seu mar territorial, mesmo que a embarcação esteja em seu porto.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>O Artigo 218 permite investigações pelo Estado do porto sobre descargas em alto mar ou outras zonas.</t>
+          <t>Segundo o **art. 218, parágrafo 1º**, quando uma embarcação está voluntariamente num porto, o Estado pode investigar descargas realizadas fora de suas águas.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1231,27 +1231,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pág 63</t>
+          <t>Pág. 63</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Os Estados podem impedir que uma embarcação em seu porto navegue se ela violar normas de navegabilidade e ameaçar o meio marinho.</t>
+          <t>O Estado costeiro pode deter uma embarcação na ZEE se houver prova manifesta de descarga que provoque danos importantes ao litoral ou interesses conexos.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Uma vez pagas as taxas portuárias, o Estado deve liberar qualquer embarcação, mesmo que ela apresente riscos graves de poluição ao sair.</t>
+          <t>O Estado costeiro nunca pode deter uma embarcação estrangeira em sua ZEE, devendo apenas notificar o Estado de bandeira.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>O Artigo 219 permite medidas administrativas para impedir a navegação de embarcações não navegáveis (unseaworthy).</t>
+          <t>O **art. 220, parágrafo 6º**, permite iniciar procedimentos, incluindo detenção, se houver prova manifesta de descarga na ZEE causando danos importantes.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1265,27 +1265,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pág 63</t>
+          <t>Pág. 63</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode exigir informações de uma embarcação na ZEE se houver motivos para crer que ela violou regras de poluição.</t>
+          <t>Um Estado pode exigir informações de uma embarcação na sua ZEE se tiver motivos para acreditar que ela violou regras internacionais de poluição.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>O Estado costeiro não pode interpelar navios estrangeiros na ZEE; apenas pode observá-los passivamente.</t>
+          <t>O Estado costeiro não tem autoridade para exigir informações de embarcações em trânsito na ZEE, a menos que entrem no mar territorial.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>O Artigo 220, parágrafo 3º, permite exigir informações sobre identidade e rota em caso de suspeita.</t>
+          <t>De acordo com o **art. 220, parágrafo 3º**, o Estado pode exigir informações à embarcação na ZEE se tiver motivos sérios para acreditar que houve violação de regras.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1299,27 +1299,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág. 64</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Se houver prova manifesta de descarga na ZEE causando danos importantes, o Estado costeiro pode deter a embarcação.</t>
+          <t>Os Estados podem tomar medidas além do mar territorial para proteger seu litoral contra poluição resultante de acidente marítimo.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>O Estado costeiro nunca pode deter uma embarcação estrangeira na ZEE, devendo apenas reportar o fato ao Estado da bandeira.</t>
+          <t>Em caso de acidente marítimo, os Estados estão estritamente limitados a atuar dentro de seu mar territorial, não podendo agir em alto mar.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>O Artigo 220, parágrafo 6º, permite iniciar procedimentos e deter a embarcação em casos graves na ZEE.</t>
+          <t>Conforme o **art. 221, parágrafo 1º**, os Estados têm o direito de tomar medidas além do mar territorial para proteger seu litoral contra poluição por acidente marítimo.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1333,27 +1333,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág. 64</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Os Estados podem tomar medidas além do mar territorial para proteger seu litoral contra poluição resultante de um acidente marítimo.</t>
+          <t>Somente navios de guerra ou aeronaves militares, ou outros devidamente autorizados e identificados, podem exercer poderes de polícia sobre embarcações estrangeiras.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Em caso de acidente marítimo em alto mar, o Estado costeiro deve esperar passivamente que o óleo chegue à praia para agir, respeitando a liberdade dos mares.</t>
+          <t>Qualquer embarcação mercante nacional pode exercer poderes de polícia sobre embarcações estrangeiras em nome do Estado costeiro.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>O Artigo 221 garante o direito de intervenção em casos de acidentes marítimos para proteger o litoral.</t>
+          <t>O texto do **art. 224** estabelece que somente funcionários habilitados e navios/aeronaves militares ou autorizados podem exercer poderes de polícia.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1367,27 +1367,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág. 64</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Somente navios de guerra ou aeronaves militares, ou outros devidamente autorizados e identificados, podem exercer poderes de polícia.</t>
+          <t>No exercício dos poderes de polícia, os Estados não devem pôr em perigo a segurança da navegação nem conduzir a embarcação a porto inseguro.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Qualquer embarcação civil ou mercante pode exercer poderes de polícia contra navios estrangeiros se presenciar uma infração ambiental.</t>
+          <t>A segurança da navegação pode ser comprometida se for necessário para garantir a aplicação imediata das leis ambientais pelo Estado costeiro.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>O Artigo 224 restringe os poderes de polícia a navios de Estado/guerra devidamente identificados.</t>
+          <t>Segundo o **art. 225**, no exercício de poderes de polícia, os Estados não devem pôr em perigo a segurança da navegação ou conduzir a embarcação a porto inseguro.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1401,27 +1401,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág. 65</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>No exercício dos poderes de polícia, os Estados não devem pôr em perigo a segurança da navegação nem conduzir a embarcação a porto inseguro.</t>
+          <t>A inspeção material de uma embarcação estrangeira deve limitar-se inicialmente ao exame de documentos, salvo exceções justificadas.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Para garantir a proteção ambiental, as autoridades podem forçar uma embarcação a manobras perigosas ou levá-la a qualquer local, independentemente da segurança.</t>
+          <t>A inspeção de embarcações estrangeiras deve sempre incluir uma busca física completa em todos os compartimentos, independentemente dos documentos apresentados.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>O Artigo 225 impõe o dever de não colocar em risco a segurança da navegação durante a fiscalização.</t>
+          <t>De acordo com o **art. 226, parágrafo 1º, alínea 'a'**, a inspeção material deve ser limitada a um exame dos documentos, salvo se existirem motivos sérios para ir além.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1435,27 +1435,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág. 65</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A inspeção material de uma embarcação estrangeira deve limitar-se inicialmente ao exame de documentos, salvo suspeitas fundadas.</t>
+          <t>Os procedimentos por infrações além do mar territorial devem ser suspensos se o Estado de bandeira instaurar procedimentos correspondentes no prazo de seis meses.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A fiscalização ambiental permite que o Estado desmonte e inspecione fisicamente todo o navio como procedimento padrão, sem necessidade de verificar documentos primeiro.</t>
+          <t>O Estado costeiro tem prioridade absoluta em procedimentos penais, não sendo obrigado a suspendê-los mesmo se o Estado de bandeira agir.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>O Artigo 226 limita a inspeção inicial aos documentos obrigatórios.</t>
+          <t>O **art. 228, parágrafo 1º**, determina que os procedimentos serão suspensos se o Estado de bandeira tiver instaurado procedimentos no prazo de seis meses.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág. 65</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Os procedimentos instaurados pelo Estado costeiro serão suspensos se o Estado de bandeira instaurar procedimentos para a mesma infração, salvo casos de danos graves.</t>
+          <t>Ao exercer seus direitos de proteção ambiental, os Estados não devem fazer discriminação de direito ou de fato em relação a embarcações de qualquer outro Estado.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>O Estado costeiro tem sempre preferência absoluta para julgar infrações, e seus processos nunca são suspensos por ações do Estado de bandeira.</t>
+          <t>Os Estados podem aplicar normas mais rigorosas seletivamente contra embarcações de países que não sejam seus aliados comerciais.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>O Artigo 228 prevê a suspensão de procedimentos em favor do Estado de bandeira, com exceções.</t>
+          <t>Conforme o **art. 227**, os Estados não devem fazer discriminação de direito ou de fato em relação às embarcações de qualquer outro Estado.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1503,27 +1503,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág. 66</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Não serão instaurados procedimentos em relação a embarcações estrangeiras decorridos três anos da data da infração.</t>
+          <t>Só podem ser impostas penas pecuniárias no caso de infrações de poluição cometidas por embarcações estrangeiras além do mar territorial.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Crimes ambientais no mar são imprescritíveis, podendo ser julgados a qualquer tempo, mesmo após décadas.</t>
+          <t>Penas privativas de liberdade (prisão) podem ser aplicadas rotineiramente para qualquer infração de poluição na ZEE ou alto mar.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>O Artigo 228, parágrafo 2º, estabelece o prazo prescricional de três anos.</t>
+          <t>Segundo o **art. 230, parágrafo 1º**, só podem ser impostas penas pecuniárias no caso de infrações além do mar territorial.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1537,27 +1537,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág. 66</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Só podem ser impostas penas pecuniárias (multas) por infrações de poluição cometidas por embarcações estrangeiras além do mar territorial.</t>
+          <t>Os Estados são responsáveis por perdas ou danos decorrentes de medidas de execução ilegais ou excessivas.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode aplicar pena de prisão ao capitão de navio estrangeiro por qualquer vazamento de óleo ocorrido na Zona Econômica Exclusiva.</t>
+          <t>Os Estados gozam de imunidade total e não respondem por perdas ou danos causados, mesmo se suas medidas de execução forem ilegais.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>O Artigo 230, parágrafo 1º, restringe as sanções a penas pecuniárias fora do mar territorial.</t>
+          <t>O texto do **art. 232** afirma que os Estados serão responsáveis por perdas ou danos decorrentes de medidas que forem ilegais ou excederem o razoável.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1571,27 +1571,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág. 66</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Os Estados têm o direito de adotar leis não discriminatórias para controlar a poluição em áreas cobertas de gelo na ZEE devido a perigos excepcionais.</t>
+          <t>As disposições sobre proteção ambiental não afetam o regime jurídico dos estreitos utilizados para a navegação internacional.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Áreas cobertas de gelo não recebem tratamento especial na Convenção, aplicando-se as mesmas regras de navegação das águas tropicais.</t>
+          <t>As normas de proteção ambiental têm primazia e anulam o regime jurídico de trânsito em estreitos internacionais.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>O Artigo 234 confere direitos especiais de legislação para áreas cobertas de gelo.</t>
+          <t>De acordo com o **art. 233**, nenhuma das disposições das seções 5, 6 e 7 afeta o regime jurídico dos estreitos utilizados para a navegação internacional.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1605,27 +1605,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pág 67</t>
+          <t>Pág. 67</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Os Estados são responsáveis pelo cumprimento das suas obrigações internacionais relativas à proteção do meio marinho e devem assegurar meios de indenização.</t>
+          <t>As disposições da Convenção sobre meio ambiente não se aplicam a navios de guerra ou embarcações de Estado em serviço não comercial.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Os Estados não têm responsabilidade financeira por danos ambientais causados por pessoas físicas ou jurídicas sob sua jurisdição.</t>
+          <t>Navios de guerra estão sujeitos às mesmas regras de fiscalização e inspeção ambiental que as embarcações mercantes estrangeiras.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>O Artigo 235 estabelece a responsabilidade e a necessidade de garantir meios de recurso para indenização.</t>
+          <t>Conforme o **art. 236**, as disposições sobre meio ambiente não se aplicam a navios de guerra ou embarcações em serviço governamental não comercial.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1639,27 +1639,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pág 67</t>
+          <t>Pág. 67</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>As disposições sobre proteção do meio marinho não se aplicam a navios de guerra ou de Estado em serviço não comercial (imunidade soberana).</t>
+          <t>Os Estados devem assegurar através do seu direito interno meios de recurso para indenização por danos de poluição.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Navios de guerra estão sujeitos às mesmas inspeções e penalidades ambientais que os navios mercantes em portos estrangeiros.</t>
+          <t>A Convenção proíbe que questões de indenização por poluição sejam tratadas no direito interno, exigindo tribunais internacionais.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>O Artigo 236 garante a imunidade soberana para navios de guerra e de Estado.</t>
+          <t>O **art. 235, parágrafo 2º**, obriga os Estados a assegurar meios de recurso no direito interno para obter indenização pronta e adequada.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1673,27 +1673,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pág 67</t>
+          <t>Pág. 67</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Parte XII</t>
+          <t>Parte XII - Proteção e Preservação do Meio Ambiente</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>As obrigações específicas contraídas em virtude de convenções especiais sobre o meio marinho devem ser cumpridas de modo compatível com a presente Convenção.</t>
+          <t>As obrigações específicas de convenções especiais sobre meio ambiente devem ser cumpridas de modo compatível com os princípios da presente Convenção.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A presente Convenção anula automaticamente todos os tratados ambientais anteriores assinados pelos Estados.</t>
+          <t>A presente Convenção revoga automaticamente todas as obrigações de convenções anteriores sobre meio ambiente, independentemente de compatibilidade.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>O Artigo 237 mantém a validade de outras convenções, desde que compatíveis com os princípios gerais.</t>
+          <t>Segundo o **art. 237, parágrafo 2º**, as obrigações de convenções especiais devem ser cumpridas de modo compatível com os princípios e objetivos da presente Convenção.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
